--- a/case 6/private display.xlsx
+++ b/case 6/private display.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -40,9 +40,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>no=12</t>
-  </si>
-  <si>
     <t>name=prasuna</t>
   </si>
   <si>
@@ -52,7 +49,43 @@
     <t>after operator overloading</t>
   </si>
   <si>
-    <t>no=13</t>
+    <t>After copy contructor and</t>
+  </si>
+  <si>
+    <t>using member function</t>
+  </si>
+  <si>
+    <t>no=10</t>
+  </si>
+  <si>
+    <t>no=11</t>
+  </si>
+  <si>
+    <t>no=9</t>
+  </si>
+  <si>
+    <t>name=raj</t>
+  </si>
+  <si>
+    <t>to display help command</t>
+  </si>
+  <si>
+    <t>argv[0] -h</t>
+  </si>
+  <si>
+    <t>enter given inputs</t>
+  </si>
+  <si>
+    <t>to check with char</t>
+  </si>
+  <si>
+    <t>no=a</t>
+  </si>
+  <si>
+    <t>name=garbage</t>
+  </si>
+  <si>
+    <t>exit of program</t>
   </si>
 </sst>
 </file>
@@ -402,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,38 +472,38 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -486,18 +519,154 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E17" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/case 6/private display.xlsx
+++ b/case 6/private display.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -46,21 +46,9 @@
     <t>using parameterized constructor</t>
   </si>
   <si>
-    <t>after operator overloading</t>
-  </si>
-  <si>
-    <t>After copy contructor and</t>
-  </si>
-  <si>
-    <t>using member function</t>
-  </si>
-  <si>
     <t>no=10</t>
   </si>
   <si>
-    <t>no=11</t>
-  </si>
-  <si>
     <t>no=9</t>
   </si>
   <si>
@@ -82,10 +70,28 @@
     <t>no=a</t>
   </si>
   <si>
-    <t>name=garbage</t>
-  </si>
-  <si>
-    <t>exit of program</t>
+    <t>After copy contructor</t>
+  </si>
+  <si>
+    <t>using default constructor</t>
+  </si>
+  <si>
+    <t>no=0</t>
+  </si>
+  <si>
+    <t>name=--</t>
+  </si>
+  <si>
+    <t>no=10 name=prasuna</t>
+  </si>
+  <si>
+    <t>no=9 name=raj</t>
+  </si>
+  <si>
+    <t>after assignment operator overloading</t>
+  </si>
+  <si>
+    <t>no=0 name=--</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +452,8 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -478,32 +484,32 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -511,10 +517,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,42 +533,50 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,16 +584,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -590,40 +604,40 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -639,18 +653,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,10 +677,26 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
